--- a/ipl/Sunrisers Hyderabad/Jonny Bairstow †.xlsx
+++ b/ipl/Sunrisers Hyderabad/Jonny Bairstow †.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,9 +460,154 @@
         <v>23rd Match (N), Delhi, April 28, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B3" t="str">
+        <v>7</v>
+      </c>
+      <c r="C3" t="str">
+        <v>5</v>
+      </c>
+      <c r="D3" t="str">
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>140.00</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Super Kings won by 7 wickets (with 9 balls remaining)</v>
+      </c>
+      <c r="I3" t="str">
+        <v>23rd Match (N), Delhi, April 28, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B4" t="str">
+        <v>30</v>
+      </c>
+      <c r="C4" t="str">
+        <v>21</v>
+      </c>
+      <c r="D4" t="str">
+        <v>4</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <v>142.85</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Royals won by 55 runs</v>
+      </c>
+      <c r="I4" t="str">
+        <v>28th Match (D/N), Delhi, May 02, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B5" t="str">
+        <v>43</v>
+      </c>
+      <c r="C5" t="str">
+        <v>22</v>
+      </c>
+      <c r="D5" t="str">
+        <v>3</v>
+      </c>
+      <c r="E5" t="str">
+        <v>4</v>
+      </c>
+      <c r="F5" t="str">
+        <v>195.45</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Mumbai won by 13 runs</v>
+      </c>
+      <c r="I5" t="str">
+        <v>9th Match (N), Chennai, April 17, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B6" t="str">
+        <v>38</v>
+      </c>
+      <c r="C6" t="str">
+        <v>18</v>
+      </c>
+      <c r="D6" t="str">
+        <v>3</v>
+      </c>
+      <c r="E6" t="str">
+        <v>4</v>
+      </c>
+      <c r="F6" t="str">
+        <v>211.11</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Match tied (Capitals won the one-over eliminator)</v>
+      </c>
+      <c r="I6" t="str">
+        <v>20th Match (N), Chennai, April 25, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Jonny Bairstow †</v>
+      </c>
+      <c r="B7" t="str">
+        <v>63</v>
+      </c>
+      <c r="C7" t="str">
+        <v>56</v>
+      </c>
+      <c r="D7" t="str">
+        <v>3</v>
+      </c>
+      <c r="E7" t="str">
+        <v>3</v>
+      </c>
+      <c r="F7" t="str">
+        <v>112.50</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Sunrisers won by 9 wickets (with 8 balls remaining)</v>
+      </c>
+      <c r="I7" t="str">
+        <v>14th Match (D/N), Chennai, April 21, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>